--- a/data/Birdnet_stats.xlsx
+++ b/data/Birdnet_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JKauphusman\Desktop\Scripts\Bird_Scanner\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A710DD13-7A26-4812-937F-207C11CC9316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F705109-3848-4CB2-9BD9-8A87A2085B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{53AEFC57-70FA-494E-8AF5-E1A36387DC44}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{53AEFC57-70FA-494E-8AF5-E1A36387DC44}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Survey Count</t>
   </si>
@@ -76,13 +76,22 @@
   </si>
   <si>
     <t>Totals</t>
+  </si>
+  <si>
+    <t>NTUA Berlinda Simpson</t>
+  </si>
+  <si>
+    <t>NTUA Nazlini</t>
+  </si>
+  <si>
+    <t>P-value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +103,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -134,10 +157,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,21 +482,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98BFE082-20C9-400D-8588-0818433C6FA1}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -483,7 +513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -500,7 +530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -516,8 +546,9 @@
       <c r="E3" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -533,8 +564,9 @@
       <c r="E4" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -550,8 +582,9 @@
       <c r="E5" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -567,8 +600,9 @@
       <c r="E6" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -584,8 +618,9 @@
       <c r="E7" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -601,8 +636,9 @@
       <c r="E8" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -618,8 +654,9 @@
       <c r="E9" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -635,29 +672,85 @@
       <c r="E10" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>17</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="1">
-        <f>SUM(B2:B10)</f>
-        <v>56</v>
-      </c>
-      <c r="C11" s="1">
-        <f>SUM(C2:C10)</f>
-        <v>25</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="B13" s="1">
+        <f>SUM(B2:B12)</f>
+        <v>73</v>
+      </c>
+      <c r="C13" s="1">
+        <f>SUM(C2:C12)</f>
+        <v>30</v>
+      </c>
+      <c r="D13" s="1">
         <f>SUM(D2:D10)</f>
         <v>15</v>
       </c>
-      <c r="E11" s="1">
-        <f>SUM(E2:E10)</f>
-        <v>71</v>
-      </c>
+      <c r="E13" s="1">
+        <f>SUM(E2:E12)</f>
+        <v>90</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="7">
+        <f>_xlfn.T.TEST(B2:B12,E2:E12,2,1)</f>
+        <v>2.9370162217170946E-2</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B14:E14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
